--- a/relatorio/eda.xlsx
+++ b/relatorio/eda.xlsx
@@ -105,7 +105,7 @@
     <t>Hash Duplo</t>
   </si>
   <si>
-    <t>Hash Encadeado</t>
+    <t>Hash Encadiado</t>
   </si>
 </sst>
 </file>
@@ -277,1003 +277,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Tempo de inserção médio</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.2104512248468941"/>
-          <c:y val="3.2407407407407406E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11637270341207349"/>
-          <c:y val="0.15319444444444447"/>
-          <c:w val="0.85862729658792647"/>
-          <c:h val="0.72088764946048411"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent6">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="90000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-          </c:dPt>
-          <c:cat>
-            <c:strLit>
-              <c:ptCount val="6"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:autoCat val="1"/>
-                </c:ext>
-              </c:extLst>
-            </c:strLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>(Sheet1!$B$21,Sheet1!$B$31,Sheet1!$B$41,Sheet1!$B$51,Sheet1!$B$61,Sheet1!$B$71,Sheet1!$B$71)</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>(Sheet1!$B$21,Sheet1!$B$31,Sheet1!$B$41,Sheet1!$B$51,Sheet1!$B$61,Sheet1!$B$71)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.6247117261999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.2356974939999998E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.474505908E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.9059493905999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.2821292626000003E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.0404338802000001E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="868148528"/>
-        <c:axId val="868147440"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="868148528"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="868147440"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="868147440"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="868148528"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="95000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:effectLst>
-                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                    <a:prstClr val="black">
-                      <a:alpha val="40000"/>
-                    </a:prstClr>
-                  </a:outerShdw>
-                </a:effectLst>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="pt-BR"/>
-              <a:t>Tempo de Busca médio</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="lt1">
-                  <a:lumMod val="95000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:effectLst>
-                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
-                  <a:prstClr val="black">
-                    <a:alpha val="40000"/>
-                  </a:prstClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="15"/>
-      <c:rotY val="20"/>
-      <c:depthPercent val="100"/>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent6"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-            <a:sp3d/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="C00000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg2"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst>
-                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                  <a:srgbClr val="000000">
-                    <a:alpha val="63000"/>
-                  </a:srgbClr>
-                </a:outerShdw>
-              </a:effectLst>
-              <a:sp3d/>
-            </c:spPr>
-          </c:dPt>
-          <c:val>
-            <c:numRef>
-              <c:f>(Sheet1!$D$21,Sheet1!$D$31,Sheet1!$D$41,Sheet1!$D$51,Sheet1!$D$61,Sheet1!$D$71)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>4.4724497119999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0699154385999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.3771134823999995E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.1269810603999997E-3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.5236808067999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.9766481839999998E-3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:shape val="box"/>
-        <c:axId val="744762896"/>
-        <c:axId val="744751472"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="744762896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="744751472"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="744751472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="lt1">
-                    <a:lumMod val="85000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="744762896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="dk1">
-            <a:lumMod val="85000"/>
-            <a:lumOff val="15000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="pt-BR"/>
@@ -1745,11 +748,1022 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Tempo de Busca médio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>(Sheet1!$D$21,Sheet1!$D$31,Sheet1!$D$41,Sheet1!$D$51,Sheet1!$D$61,Sheet1!$D$71)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.4724497119999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0699154385999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3771134823999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1269810603999997E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5236808067999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9766481839999998E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="950443072"/>
+        <c:axId val="950440896"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="950443072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="950440896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="950440896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="950443072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup orientation="portrait"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="95000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:effectLst>
+                  <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                    <a:prstClr val="black">
+                      <a:alpha val="40000"/>
+                    </a:prstClr>
+                  </a:outerShdw>
+                </a:effectLst>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Tempo de inserção médio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2104512248468941"/>
+          <c:y val="3.2407407407407406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="50800" dist="38100" dir="5400000" algn="t" rotWithShape="0">
+                  <a:prstClr val="black">
+                    <a:alpha val="40000"/>
+                  </a:prstClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11637270341207349"/>
+          <c:y val="0.15319444444444447"/>
+          <c:w val="0.85862729658792647"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$72</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BST</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="90000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strLit>
+              <c:ptCount val="6"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:autoCat val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:strLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>(Sheet1!$B$21,Sheet1!$B$31,Sheet1!$B$41,Sheet1!$B$51,Sheet1!$B$61,Sheet1!$B$71,Sheet1!$B$71)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$B$21,Sheet1!$B$31,Sheet1!$B$41,Sheet1!$B$51,Sheet1!$B$61,Sheet1!$B$71)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.6247117261999995E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2356974939999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.474505908E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9059493905999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.2821292626000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0404338802000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="680737040"/>
+        <c:axId val="680735408"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="680737040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="680735408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="680735408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="680737040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="85000"/>
+            <a:lumOff val="15000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent4"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -1823,13 +1837,10 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -3296,18 +3307,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvPr id="8" name="Gráfico 7"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3324,21 +3335,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="29" name="Gráfico 28"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3356,19 +3369,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Gráfico 7"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="30" name="Gráfico 29"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3650,8 +3665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="G75" sqref="G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5221,25 +5236,28 @@
         <v>7.1487999999999996</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="9" t="s">
+    <row r="72" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B91" s="10" t="s">
+      <c r="B72" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C91" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D91" s="12" t="s">
+      <c r="D72" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="E91" s="13" t="s">
+      <c r="E72" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F91" s="14" t="s">
+      <c r="F72" s="14" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="75" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G75" s="15"/>
     </row>
     <row r="97" spans="7:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G97" s="15"/>
